--- a/PFOA inhalation Rat/Data/PFOA_male_feces_oral_low_Cui_2010.xlsx
+++ b/PFOA inhalation Rat/Data/PFOA_male_feces_oral_low_Cui_2010.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpjio\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCC7343-B342-4647-A567-A8DAA7B8FE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A6FD50-D7C8-431B-A170-D85ABA663957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="8">
   <si>
     <t>Dose_mg_per_kg</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>oral</t>
+  </si>
+  <si>
+    <t>Mass_mg</t>
   </si>
   <si>
     <t>Tissue</t>
@@ -56,16 +59,13 @@
     <t>Feces</t>
   </si>
   <si>
-    <t>Concentration_microg_per_g_organ</t>
+    <t>feces weight (g)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -103,7 +103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -114,10 +114,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,238 +431,249 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.5546875" customWidth="1"/>
     <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3">
         <v>24</v>
       </c>
       <c r="C2" s="3">
-        <v>12.810351659461634</v>
+        <v>0.10184229569272001</v>
       </c>
       <c r="D2" s="3">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3"/>
+        <v>7.95</v>
+      </c>
+      <c r="E2" s="3">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3">
         <v>72</v>
       </c>
       <c r="C3" s="3">
-        <v>17.556677551093067</v>
+        <v>0.14185795461283199</v>
       </c>
       <c r="D3" s="3">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3"/>
+        <v>8.08</v>
+      </c>
+      <c r="E3" s="3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3">
         <v>120</v>
       </c>
       <c r="C4" s="3">
-        <v>30.535730499032926</v>
+        <v>0.25130906200704101</v>
       </c>
       <c r="D4" s="3">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3"/>
+        <v>8.23</v>
+      </c>
+      <c r="E4" s="3">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3">
         <v>168</v>
       </c>
       <c r="C5" s="3">
-        <v>33.066329104210773</v>
+        <v>0.276434511311202</v>
       </c>
       <c r="D5" s="3">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3"/>
+        <v>8.36</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3">
         <v>240</v>
       </c>
       <c r="C6" s="3">
-        <v>34.212225535330859</v>
+        <v>0.341438010842602</v>
       </c>
       <c r="D6" s="3">
-        <v>5</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="3"/>
+        <v>9.98</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3">
         <v>336</v>
       </c>
       <c r="C7" s="3">
-        <v>27.357909002365865</v>
+        <v>0.31735174442744402</v>
       </c>
       <c r="D7" s="3">
-        <v>5</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="3"/>
+        <v>11.6</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3">
         <v>432</v>
       </c>
       <c r="C8" s="3">
-        <v>29.390811676676872</v>
+        <v>0.38501963296446701</v>
       </c>
       <c r="D8" s="3">
-        <v>5</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="3"/>
+        <v>13.1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3">
         <v>504</v>
       </c>
       <c r="C9" s="3">
-        <v>32.231686569613721</v>
+        <v>0.46735945525939898</v>
       </c>
       <c r="D9" s="3">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="3"/>
+        <v>14.5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="3">
         <v>576</v>
       </c>
       <c r="C10" s="3">
-        <v>33.118523883319412</v>
+        <v>0.51002526780311896</v>
       </c>
       <c r="D10" s="3">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="3"/>
+        <v>15.4</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" s="3">
         <v>672</v>
       </c>
       <c r="C11" s="3">
-        <v>35.223745774593169</v>
+        <v>0.57766943070332799</v>
       </c>
       <c r="D11" s="3">
-        <v>5</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="3"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E11" s="3">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
@@ -676,7 +683,6 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
@@ -686,7 +692,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="4"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
@@ -696,7 +702,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="5"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
@@ -706,6 +712,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
@@ -715,6 +722,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>

--- a/PFOA inhalation Rat/Data/PFOA_male_feces_oral_low_Cui_2010.xlsx
+++ b/PFOA inhalation Rat/Data/PFOA_male_feces_oral_low_Cui_2010.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpjio\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A6FD50-D7C8-431B-A170-D85ABA663957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD6BEE7-9498-4456-A00A-D49C309F6FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,19 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="8">
-  <si>
-    <t>Dose_mg_per_kg</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>oral</t>
-  </si>
-  <si>
-    <t>Mass_mg</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="4">
   <si>
     <t>Tissue</t>
   </si>
@@ -59,14 +47,14 @@
     <t>Feces</t>
   </si>
   <si>
-    <t>feces weight (g)</t>
+    <t>Mass_ug</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +68,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -100,10 +95,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -114,9 +110,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{5C7EE8F9-1726-4FD0-AF97-BFFFDE894F01}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -431,7 +429,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C2" sqref="C2:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,248 +444,194 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3">
         <v>24</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>0.10184229569272001</v>
       </c>
-      <c r="D2" s="3">
-        <v>7.95</v>
-      </c>
-      <c r="E2" s="3">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>72</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.14185795461283199</v>
-      </c>
-      <c r="D3" s="3">
-        <v>8.08</v>
-      </c>
-      <c r="E3" s="3">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.22369242084549601</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>120</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.25130906200704101</v>
-      </c>
-      <c r="D4" s="3">
-        <v>8.23</v>
-      </c>
-      <c r="E4" s="3">
-        <v>5</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.36555037545832803</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3">
-        <v>168</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.276434511311202</v>
-      </c>
-      <c r="D5" s="3">
-        <v>8.36</v>
-      </c>
-      <c r="E5" s="3">
-        <v>5</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.56213388376826401</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" s="3">
-        <v>240</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.341438010842602</v>
-      </c>
-      <c r="D6" s="3">
-        <v>9.98</v>
-      </c>
-      <c r="E6" s="3">
-        <v>5</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.81344294577530596</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B7" s="3">
-        <v>336</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.31735174442744402</v>
-      </c>
-      <c r="D7" s="3">
-        <v>11.6</v>
-      </c>
-      <c r="E7" s="3">
-        <v>5</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1.0773147324344301</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8" s="3">
-        <v>432</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.38501963296446701</v>
-      </c>
-      <c r="D8" s="3">
-        <v>13.1</v>
-      </c>
-      <c r="E8" s="3">
-        <v>5</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1.35374924374563</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B9" s="3">
-        <v>504</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.46735945525939898</v>
-      </c>
-      <c r="D9" s="3">
-        <v>14.5</v>
-      </c>
-      <c r="E9" s="3">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.6518515882339599</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B10" s="3">
-        <v>576</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.51002526780311896</v>
-      </c>
-      <c r="D10" s="3">
-        <v>15.4</v>
-      </c>
-      <c r="E10" s="3">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1.9716217658994299</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B11" s="3">
-        <v>672</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.57766943070332799</v>
-      </c>
-      <c r="D11" s="3">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="E11" s="3">
-        <v>5</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2.31305977674204</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3">
+        <v>264</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2.6484762209808501</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3">
+        <v>288</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2.9778710986158701</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -695,9 +639,15 @@
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3">
+        <v>312</v>
+      </c>
+      <c r="C14" s="4">
+        <v>3.3012444096470999</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -705,9 +655,15 @@
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3">
+        <v>336</v>
+      </c>
+      <c r="C15" s="4">
+        <v>3.6185961540745502</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -715,61 +671,171 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3">
+        <v>360</v>
+      </c>
+      <c r="C16" s="4">
+        <v>3.9528648706362501</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>384</v>
+      </c>
+      <c r="C17" s="4">
+        <v>4.3040505593322003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>408</v>
+      </c>
+      <c r="C18" s="4">
+        <v>4.6721532201624099</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>432</v>
+      </c>
+      <c r="C19" s="4">
+        <v>5.0571728531268798</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>456</v>
+      </c>
+      <c r="C20" s="4">
+        <v>5.4696390935229902</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>480</v>
+      </c>
+      <c r="C21" s="4">
+        <v>5.9095519413507498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>504</v>
+      </c>
+      <c r="C22" s="4">
+        <v>6.3769113966101498</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>528</v>
+      </c>
+      <c r="C23" s="4">
+        <v>6.8584927893841199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>552</v>
+      </c>
+      <c r="C24" s="4">
+        <v>7.3542961196726599</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>576</v>
+      </c>
+      <c r="C25" s="4">
+        <v>7.8643213874757798</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>600</v>
+      </c>
+      <c r="C26" s="4">
+        <v>8.3912576960039509</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>624</v>
+      </c>
+      <c r="C27" s="4">
+        <v>8.9351050452571794</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>648</v>
+      </c>
+      <c r="C28" s="4">
+        <v>9.4958634352354494</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>672</v>
+      </c>
+      <c r="C29" s="4">
+        <v>10.0735328659388</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">

--- a/PFOA inhalation Rat/Data/PFOA_male_feces_oral_low_Cui_2010.xlsx
+++ b/PFOA inhalation Rat/Data/PFOA_male_feces_oral_low_Cui_2010.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpjio\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptsir\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD6BEE7-9498-4456-A00A-D49C309F6FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,13 +46,13 @@
     <t>Feces</t>
   </si>
   <si>
-    <t>Mass_ug</t>
+    <t>Mass_mg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -114,7 +113,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{5C7EE8F9-1726-4FD0-AF97-BFFFDE894F01}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -425,11 +424,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C29"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
